--- a/dados/eletronica two.xlsx
+++ b/dados/eletronica two.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,15 +446,25 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>politica</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>full</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>tipo</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
@@ -471,17 +481,27 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64643583#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64643583#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -496,17 +516,23 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:64643583#searchVariation=MLB24154371&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:64643583#searchVariation=MLB24154371&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -521,17 +547,23 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:64643583#searchVariation=MLB27685629&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:64643583#searchVariation=MLB27685629&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -546,17 +578,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64643583#searchVariation=MLB24834408&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64643583#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -571,17 +609,23 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64643583#searchVariation=MLB21562641&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64643583#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -596,17 +640,27 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 60A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64643583#searchVariation=MLB21320712&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64643583#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -621,17 +675,23 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:64643583#searchVariation=MLB27687422&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:64643583#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -646,17 +706,23 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-1200-m-central-e-cordo-cor-azul/p/MLB27976914?pdp_filters=seller_id:64643583#searchVariation=MLB27976914&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-1200-m-central-e-cordo-cor-azul/p/MLB27976914?pdp_filters=seller_id:64643583#searchVariation=MLB27976914&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -671,17 +737,23 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:64643583#searchVariation=MLB21392652&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:64643583#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -696,17 +768,23 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:64643583#searchVariation=MLB28243528&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:64643583#searchVariation=MLB28243528&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -721,17 +799,23 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:64643583#searchVariation=MLB23998473&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:64643583#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -746,17 +830,23 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:64643583#searchVariation=MLB21455208&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:64643583#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -771,17 +861,27 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>FONTE 200A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Premium</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441639785-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3441639785-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -796,17 +896,23 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482041487-fonte-e-carregadora-jfa-storm-lite-200a-lite-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482041487-fonte-e-carregadora-jfa-storm-lite-200a-lite-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -821,17 +927,23 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838605-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838605-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -846,17 +958,23 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453578091-controle-de-longa-distancia-jfa-1200-acqua-pretocinza-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453578091-controle-de-longa-distancia-jfa-1200-acqua-pretocinza-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -871,17 +989,23 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482055739-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482055739-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -896,17 +1020,23 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1989885430-fonte-jfa-60a-3000w-sci-carregador-bateria-display-led-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1989885430-fonte-jfa-60a-3000w-sci-carregador-bateria-display-led-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -921,17 +1051,23 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043498568-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043498568-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -946,17 +1082,23 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043487100-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043487100-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -971,17 +1113,23 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057019483-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057019483-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -996,17 +1144,23 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043524450-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043524450-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1021,17 +1175,23 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040804948-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-2040804948-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1046,17 +1206,23 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057014735-extenso-fonte-usina-jfa-soundigital-taramps-stetsom-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057014735-extenso-fonte-usina-jfa-soundigital-taramps-stetsom-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1071,17 +1237,23 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057024620-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057024620-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1096,17 +1268,23 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043450242-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043450242-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1121,17 +1299,23 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482105211-fonte-jfa-200-amperes-storm-lite-automotiva-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482105211-fonte-jfa-200-amperes-storm-lite-automotiva-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1146,17 +1330,23 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1143371507-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1143371507-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1171,17 +1361,23 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130361400-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4130361400-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1196,17 +1392,23 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863203-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863203-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1221,17 +1423,23 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976900472-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976900472-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1246,17 +1454,23 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482068547-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482068547-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1271,17 +1485,23 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482066949-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3482066949-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1296,17 +1516,23 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453684619-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453684619-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1321,17 +1547,23 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043538240-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043538240-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1346,17 +1578,23 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043460836-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043460836-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1371,17 +1609,23 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64643583#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=fdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64643583#searchVariation=MLB22144397&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1396,17 +1640,23 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057012381-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057012381-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1421,17 +1671,23 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043475800-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043475800-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1446,17 +1702,23 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043525530-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4043525530-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1471,17 +1733,23 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057018379-extenso-fonte-usina-jfa-stetsom-taramps-pawer-sistem-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057018379-extenso-fonte-usina-jfa-stetsom-taramps-pawer-sistem-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1496,17 +1764,23 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816768-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816768-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1521,17 +1795,23 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057020442-controle-jfa-1200-longa-distancia-universal-radio-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-1057020442-controle-jfa-1200-longa-distancia-universal-radio-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1546,17 +1826,23 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Classico</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453920357-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>classico</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3453920357-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1571,17 +1857,23 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855478-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855478-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>
@@ -1596,17 +1888,23 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>NA</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Premium</t>
-        </is>
-      </c>
+          <t>Modelo identificado mas fora do range de preco</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976875558-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dfdc37ad3-c221-4863-be3a-11b93e1823bd</t>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>premium</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>https://produto.mercadolivre.com.br/MLB-3976875558-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
         </is>
       </c>
     </row>

--- a/dados/eletronica two.xlsx
+++ b/dados/eletronica two.xlsx
@@ -441,12 +441,12 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>modelo</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>preco</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -476,14 +476,14 @@
           <t>Fonte Carregador Automotiva Jfa 200a Slim Bivolt Voltímetro</t>
         </is>
       </c>
-      <c r="B2" t="n">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>890.39</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
-      </c>
       <c r="D2" t="inlineStr">
         <is>
           <t>Acima</t>
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64643583#searchVariation=MLB21348561&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64643583#searchVariation=MLB21348561&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -511,15 +511,19 @@
           <t>Fonte Carregador Jfa 200a Lite Storm Slim Bivolt Cor Azul</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>796.35</v>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>NA</t>
@@ -532,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:64643583#searchVariation=MLB24154371&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:64643583#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -542,13 +546,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B4" t="n">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
         <v>76.45</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
@@ -563,7 +567,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:64643583#searchVariation=MLB27685629&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:64643583#searchVariation=MLB27685629&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -573,15 +577,19 @@
           <t>Fonte Automotiva Jfa Storm 200a Bob Carregador Automático Bivolt Cor BOB 200A JFA</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>693.7</v>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>NA</t>
@@ -594,7 +602,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64643583#searchVariation=MLB24834408&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64643583#searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -604,15 +612,19 @@
           <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>492.3</v>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>NA</t>
@@ -625,7 +637,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64643583#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64643583#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -635,14 +647,14 @@
           <t>Fonte Carregador Jfa 60a Bivolt Storm Com Medidor Cca</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>473.28</v>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FONTE 60A</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
           <t>Igual</t>
@@ -660,7 +672,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64643583#searchVariation=MLB21320712&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64643583#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -670,13 +682,13 @@
           <t>Controle Longa Distância Jfa Acqua 1200 Resistente A Água</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>87.90000000000001</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
@@ -691,25 +703,29 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:64643583#searchVariation=MLB27687422&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:64643583#searchVariation=MLB27687422&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 M + Central E Cordão Cor Azul</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>595.85</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>NA</t>
@@ -722,23 +738,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-1200-m-central-e-cordo-cor-azul/p/MLB27976914?pdp_filters=seller_id:64643583#searchVariation=MLB27976914&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:64643583#searchVariation=MLB23998473&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Longa Distância Jfa K1200 1200 M + Central E Cordão Cor Azul</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>61.19</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -753,7 +769,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:64643583#searchVariation=MLB21392652&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-1200-m-central-e-cordo-cor-azul/p/MLB27976914?pdp_filters=seller_id:64643583#searchVariation=MLB27976914&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -763,13 +779,13 @@
           <t>Controle De Longa Distancia Jfa K600 600 Metros Com 10 Cores Cor</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>58.13</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -784,25 +800,29 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:64643583#searchVariation=MLB28243528&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:64643583#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>595.85</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>NA</t>
@@ -815,25 +835,29 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:64643583#searchVariation=MLB23998473&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:64643583#searchVariation=MLB21392652&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>FONTE 200A STORM</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>890.39</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>NA</t>
@@ -841,28 +865,28 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:64643583#searchVariation=MLB21455208&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441639785-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200a Automotiva Slim Bivolt Voltímetro Digital Som</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>890.39</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>FONTE 200A</t>
-        </is>
+          <t>Fonte E Carregadora Jfa Storm Lite 200a Lite Bivolt</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>796.35</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -881,23 +905,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441639785-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482041487-fonte-e-carregadora-jfa-storm-lite-200a-lite-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm Lite 200a Lite Bivolt</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>796.35</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve">  Controle De Longa Distancia Jfa 1200 Acqua Preto/cinza</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>78.90000000000001</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -907,12 +931,12 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482041487-fonte-e-carregadora-jfa-storm-lite-200a-lite-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453578091-controle-de-longa-distancia-jfa-1200-acqua-pretocinza-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -922,15 +946,19 @@
           <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>749.65</v>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -943,25 +971,29 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838605-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838605-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Controle De Longa Distancia Jfa 1200 Acqua Preto/cinza</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>Fonte Jfa 200 Amperes Storm Lite Automotiva Bivolt</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>757.59</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>NA</t>
@@ -974,25 +1006,29 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453578091-controle-de-longa-distancia-jfa-1200-acqua-pretocinza-_JM#position%3D19%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482105211-fonte-jfa-200-amperes-storm-lite-automotiva-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>FONTE 120A LITE</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>595.85</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1000,30 +1036,34 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482055739-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130361400-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Jfa 60a 3000w Sci Carregador Bateria Display Led</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>FONTE 200A LITE</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>757.59</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1031,28 +1071,28 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1989885430-fonte-jfa-60a-3000w-sci-carregador-bateria-display-led-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482066949-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>581.8200000000001</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>772.02</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -1067,23 +1107,23 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043498568-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482055739-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Remoto De Longa Distacia Jfa K600</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>62.89</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -1098,25 +1138,29 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043487100-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816768-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>131.59</v>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1124,30 +1168,34 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057019483-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:64643583#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1160,25 +1208,29 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043524450-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043498568-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>581.8200000000001</v>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1191,23 +1243,23 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040804948-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043524450-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extensão Fonte Usina, Jfa, Soundigital, Taramps, Stetsom </t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>215.98</v>
-      </c>
-      <c r="C25" t="inlineStr">
+          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C25" t="n">
+        <v>58.13</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1222,25 +1274,29 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057014735-extenso-fonte-usina-jfa-soundigital-taramps-stetsom-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453920357-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Longa Distancia Universal Dvd Radio Branco</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>581.8200000000001</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1248,30 +1304,34 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057024620-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040804948-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>469.92</v>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1279,28 +1339,28 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043450242-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043487100-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Amperes Storm Lite Automotiva Bivolt</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>757.59</v>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcance</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>62.89</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1310,30 +1370,34 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482105211-fonte-jfa-200-amperes-storm-lite-automotiva-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855478-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>Fonte E Carregadora Bob Storm 90amperes Jfa</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>469.92</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1341,30 +1405,34 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1143371507-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043450242-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>595.85</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>704.89</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1377,23 +1445,23 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130361400-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863203-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>704.89</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Controle Remoto  K600 Jfa 600 Metros</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>58.13</v>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
@@ -1408,25 +1476,29 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863203-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063842556-controle-remoto-k600-jfa-600-metros-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>FONTE 200 BOB</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>693.7</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1434,30 +1506,34 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976900472-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482068547-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>693.7</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>492.3</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1470,25 +1546,29 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482068547-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043538240-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>757.59</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>Fonte Jfa 60a 3000w Sci Carregador Bateria Display Led</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>525.87</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1496,30 +1576,34 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482066949-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1989885430-fonte-jfa-60a-3000w-sci-carregador-bateria-display-led-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FONTE 70A STORM</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>548.24</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1527,30 +1611,34 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453684619-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043460836-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
+          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>FONTE 60A STORM</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>492.3</v>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1563,25 +1651,29 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043538240-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043525530-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>548.24</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>FONTE 120A STORM</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>749.65</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1589,28 +1681,28 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043460836-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976900472-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>554.96</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t xml:space="preserve">Extensão Fonte Usina, Jfa, Soundigital, Taramps, Stetsom </t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>215.98</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1625,25 +1717,29 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64643583#searchVariation=MLB22144397&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=bc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057014735-extenso-fonte-usina-jfa-soundigital-taramps-stetsom-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Varias Cores</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>66.2</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>554.96</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1651,28 +1747,28 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057012381-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64643583#searchVariation=MLB22144397&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>469.92</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>131.59</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1682,30 +1778,34 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043475800-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057019483-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>492.3</v>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FONTE 90 BOB</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>469.92</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1718,7 +1818,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043525530-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043475800-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -1728,13 +1828,13 @@
           <t xml:space="preserve">Extensão Fonte Usina Jfa Stetsom Taramps Pawer Sistem </t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sem Modelo</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
         <v>242.17</v>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Sem Modelo</t>
-        </is>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1749,23 +1849,23 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057018379-extenso-fonte-usina-jfa-stetsom-taramps-pawer-sistem-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057018379-extenso-fonte-usina-jfa-stetsom-taramps-pawer-sistem-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa K600</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="C43" t="inlineStr">
+          <t>Controle Jfa 1200 Longa Distancia Universal Dvd Radio Branco</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C43" t="n">
+        <v>61.19</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1775,28 +1875,28 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816768-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057024620-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Longa Distancia Universal Radio</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="C44" t="inlineStr">
+          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C44" t="n">
+        <v>43.89</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1806,28 +1906,28 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057020442-controle-jfa-1200-longa-distancia-universal-radio-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1143371507-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="C45" t="inlineStr">
+          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C45" t="n">
+        <v>62.89</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1837,28 +1937,28 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453920357-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453684619-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcance</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="C46" t="inlineStr">
+          <t>Controle Longa Distância Jfa K1200 1200 Metros Varias Cores</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
         <is>
           <t>Sem Modelo</t>
         </is>
+      </c>
+      <c r="C46" t="n">
+        <v>66.2</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1873,7 +1973,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855478-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057012381-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>
@@ -1883,15 +1983,19 @@
           <t>Fonte 120a Jfa Bob Storm Bivolt Medidor Cca E Sci Automotiva</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FONTE 120 BOB</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
         <v>749.65</v>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Modelo identificado mas fora do range de preco</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1904,7 +2008,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976875558-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dbc7836e0-2f05-4130-a710-55cbc1fda1d1</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976875558-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
         </is>
       </c>
     </row>

--- a/dados/eletronica two.xlsx
+++ b/dados/eletronica two.xlsx
@@ -501,7 +501,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64643583#searchVariation=MLB21348561&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotiva-jfa-200a-slim-bivolt-voltimetro/p/MLB21348561?pdp_filters=seller_id:64643583#searchVariation=MLB21348561&amp;position=7&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:64643583#searchVariation=MLB24154371&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-200a-lite-storm-slim-bivolt-cor-azul/p/MLB24154371?pdp_filters=seller_id:64643583#searchVariation=MLB24154371&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -548,13 +548,17 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>76.45</v>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>NA</t>
@@ -567,7 +571,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:64643583#searchVariation=MLB27685629&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27685629?pdp_filters=seller_id:64643583#searchVariation=MLB27685629&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -602,7 +606,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64643583#searchVariation=MLB24834408&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-jfa-storm-200a-bob-carregador-automatico-bivolt-cor-bob-200a-jfa/p/MLB24834408?pdp_filters=seller_id:64643583#searchVariation=MLB24834408&amp;position=3&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -637,7 +641,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64643583#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:64643583#searchVariation=MLB21562641&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -672,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64643583#searchVariation=MLB21320712&amp;position=8&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:64643583#searchVariation=MLB21320712&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -684,13 +688,17 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>ACQUA</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>NA</t>
@@ -703,27 +711,27 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:64643583#searchVariation=MLB27687422&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-acqua-1200-resistente-a-agua/p/MLB27687422?pdp_filters=seller_id:64643583#searchVariation=MLB27687422&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 1200 M + Central E Cordão Cor Azul</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>595.85</v>
+        <v>61.19</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -738,25 +746,29 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:64643583#searchVariation=MLB23998473&amp;position=10&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-1200-m-central-e-cordo-cor-azul/p/MLB27976914?pdp_filters=seller_id:64643583#searchVariation=MLB27976914&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 M + Central E Cordão Cor Azul</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>61.19</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>704.89</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>NA</t>
@@ -769,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-longa-distncia-jfa-k1200-1200-m-central-e-cordo-cor-azul/p/MLB27976914?pdp_filters=seller_id:64643583#searchVariation=MLB27976914&amp;position=9&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:64643583#searchVariation=MLB21392652&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -781,13 +793,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>58.13</v>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>NA</t>
@@ -800,23 +816,23 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:64643583#searchVariation=MLB28243528&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/controle-de-longa-distancia-jfa-k600-600-metros-com-10-cores-cor/p/MLB28243528?pdp_filters=seller_id:64643583#searchVariation=MLB28243528&amp;position=6&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>704.89</v>
+        <v>548.24</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -835,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:64643583#searchVariation=MLB21392652&amp;position=13&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:64643583#searchVariation=MLB21455208&amp;position=11&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -870,7 +886,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3441639785-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D15%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3441639785-fonte-jfa-200a-automotiva-slim-bivolt-voltimetro-digital-som-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -905,25 +921,29 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482041487-fonte-e-carregadora-jfa-storm-lite-200a-lite-bivolt-_JM#position%3D16%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482041487-fonte-e-carregadora-jfa-storm-lite-200a-lite-bivolt-_JM#position%3D17%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Controle De Longa Distancia Jfa 1200 Acqua Preto/cinza</t>
+          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>749.64</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>NA</t>
@@ -931,34 +951,30 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453578091-controle-de-longa-distancia-jfa-1200-acqua-pretocinza-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443838605-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D18%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 120a C/medidor Cca E Sci</t>
+          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>749.65</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>772.02</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>NA</t>
@@ -971,23 +987,23 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443838605-fonte-e-carregadora-jfa-storm-120a-cmedidor-cca-e-sci-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482055739-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D20%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Fonte Jfa 200 Amperes Storm Lite Automotiva Bivolt</t>
+          <t>Fonte Jfa 60a 3000w Sci Carregador Bateria Display Led</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>757.59</v>
+        <v>525.87</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1001,28 +1017,28 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482105211-fonte-jfa-200-amperes-storm-lite-automotiva-bivolt-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1989885430-fonte-jfa-60a-3000w-sci-carregador-bateria-display-led-_JM#position%3D21%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
+          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>FONTE 120A LITE</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>595.85</v>
+        <v>581.8200000000001</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1036,32 +1052,32 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4130361400-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043498568-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D22%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
+          <t>Fonte Carregador Automotivo Jfa 120a Storm Lite 12v Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>FONTE 200A LITE</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>757.59</v>
+        <v>536.26</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1076,25 +1092,29 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482066949-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-automotivo-jfa-120a-storm-lite-12v-bivolt-cor-preto/p/MLB23998473?pdp_filters=seller_id:64643583#searchVariation=MLB23998473&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Fonte E Carregadora Jfa Bob Storm 200a Lite Bivolt</t>
+          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>772.02</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>525.87</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1107,25 +1127,29 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482055739-fonte-e-carregadora-jfa-bob-storm-200a-lite-bivolt-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043487100-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D23%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Controle Remoto De Longa Distacia Jfa K600</t>
+          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>131.59</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1138,23 +1162,23 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063816768-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057019483-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D24%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>548.24</v>
+        <v>469.92</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1173,14 +1197,14 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:64643583#searchVariation=MLB21455208&amp;position=12&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043475800-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D25%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Fonte Carregadora Bateria Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1208,14 +1232,14 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043498568-fonte-carregadora-bateria-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D27%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043524450-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D26%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 70a C/medidor Cca E Sci</t>
+          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1243,14 +1267,14 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043524450-fonte-e-carregadora-jfa-storm-70a-cmedidor-cca-e-sci-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-2040804948-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D28%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
+          <t>Controle Jfa 1200 Longa Distancia Universal Dvd Radio Branco</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1259,7 +1283,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>58.13</v>
+        <v>61.19</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -1274,23 +1298,23 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453920357-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057024620-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D29%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 70a Jfa Carregador Bateria Bivolt</t>
+          <t>Fonte Jfa Carrregador 120a Storm Lite Automotiva 12v Bivolt</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120A LITE</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>581.8200000000001</v>
+        <v>564.48</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1304,34 +1328,30 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-2040804948-fonte-automotiva-70a-jfa-carregador-bateria-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4130361400-fonte-jfa-carrregador-120a-storm-lite-automotiva-12v-bivolt-_JM#position%3D30%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Fonte E Carregadora Jfa Storm 60a C/medidor Cca E Sci</t>
+          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>525.87</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>43.89</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1344,25 +1364,29 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043487100-fonte-e-carregadora-jfa-storm-60a-cmedidor-cca-e-sci-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1143371507-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D31%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Controle De Longa Distancia Jfa K600 Longo Alcance</t>
+          <t>Fonte Jfa 200 Amperes Storm Lite Automotiva Bivolt</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>62.89</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>757.59</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1370,12 +1394,12 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063855478-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482105211-fonte-jfa-200-amperes-storm-lite-automotiva-bivolt-_JM#position%3D32%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -1410,27 +1434,27 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043450242-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043450242-fonte-e-carregadora-bob-storm-90amperes-jfa-_JM#position%3D33%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>704.89</v>
+        <v>62.89</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1440,30 +1464,34 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3443863203-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453684619-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D34%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Controle Remoto  K600 Jfa 600 Metros</t>
+          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>58.13</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>749.64</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1471,28 +1499,28 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4063842556-controle-remoto-k600-jfa-600-metros-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976900472-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D35%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
+          <t>Fonte Jfa Storm 120a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>FONTE 200 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>693.7</v>
+        <v>704.89</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1511,23 +1539,23 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3482068547-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3443863203-fonte-jfa-storm-120a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D36%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Carregador Jfa Storm Lite 200a Bivolt</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200A LITE</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>492.3</v>
+        <v>757.59</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1546,23 +1574,23 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043538240-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482066949-fonte-carregador-jfa-storm-lite-200a-bivolt-_JM#position%3D37%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Fonte Jfa 60a 3000w Sci Carregador Bateria Display Led</t>
+          <t>Fonte Carregador Automotiva Jfa Bob Storm 200a Bivolt</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>FONTE 200 BOB</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>525.87</v>
+        <v>693.7</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1576,28 +1604,28 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1989885430-fonte-jfa-60a-3000w-sci-carregador-bateria-display-led-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3482068547-fonte-carregador-automotiva-jfa-bob-storm-200a-bivolt-_JM#position%3D38%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Fonte Automotiva Jfa Storm 60a Bivolt Com Medidor Cca E Sci</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>548.24</v>
+        <v>492.3</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1616,27 +1644,27 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043460836-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043538240-fonte-automotiva-jfa-storm-60a-bivolt-com-medidor-cca-e-sci-_JM#position%3D39%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
+          <t>Controle Remoto De Longa Distacia Jfa K600</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>FONTE 60A STORM</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>492.3</v>
+        <v>62.89</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Baixo</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1646,28 +1674,28 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043525530-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063816768-controle-remoto-de-longa-distacia-jfa-k600-_JM#position%3D40%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Fonte Automotiva Jfa Storm 120a Bivolt Com Medidor Cca E Sci</t>
+          <t>Fonte Jfa Storm 70a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>749.65</v>
+        <v>548.24</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1681,30 +1709,34 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976900472-fonte-automotiva-jfa-storm-120a-bivolt-com-medidor-cca-e-sci-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043460836-fonte-jfa-storm-70a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D41%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Extensão Fonte Usina, Jfa, Soundigital, Taramps, Stetsom </t>
+          <t>Fonte Jfa Storm 60a Bivolt C/medidor Cca E Sci Automotiva</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>FONTE 60A STORM</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>215.98</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>492.3</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Acima</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1717,29 +1749,25 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057014735-extenso-fonte-usina-jfa-soundigital-taramps-stetsom-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4043525530-fonte-jfa-storm-60a-bivolt-cmedidor-cca-e-sci-automotiva-_JM#position%3D42%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t xml:space="preserve">Extensão Fonte Usina, Jfa, Soundigital, Taramps, Stetsom </t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>Sem Modelo</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>554.96</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Acima</t>
-        </is>
-      </c>
+        <v>215.98</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1752,25 +1780,29 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64643583#searchVariation=MLB22144397&amp;position=14&amp;search_layout=stack&amp;type=product&amp;tracking_id=87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057014735-extenso-fonte-usina-jfa-soundigital-taramps-stetsom-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Jfa K1200 Controle Longa Distancia 1200 Mts Cor Preto</t>
+          <t>Controle Longa Distância Jfa K1200 1200 Metros Varias Cores</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>131.59</v>
-      </c>
-      <c r="D40" t="inlineStr"/>
+        <v>66.2</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1783,27 +1815,27 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057019483-jfa-k1200-controle-longa-distancia-1200-mts-cor-preto-_JM#position%3D43%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057012381-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fonte Jfa 90 Amperes Som Altomotivo Caixa Bob Promoçao Black</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>469.92</v>
+        <v>499.46</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1818,7 +1850,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4043475800-fonte-jfa-90-amperes-som-altomotivo-caixa-bob-promocao-black-_JM#position%3D44%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto/p/MLB22144397?pdp_filters=seller_id:64643583#searchVariation=MLB22144397&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=d9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -1849,14 +1881,14 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057018379-extenso-fonte-usina-jfa-stetsom-taramps-pawer-sistem-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057018379-extenso-fonte-usina-jfa-stetsom-taramps-pawer-sistem-_JM#position%3D45%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Controle Jfa 1200 Longa Distancia Universal Dvd Radio Branco</t>
+          <t>Controle Jfa 1200 Longa Distancia Universal Radio</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1880,25 +1912,29 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057024620-controle-jfa-1200-longa-distancia-universal-dvd-radio-branco-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057020442-controle-jfa-1200-longa-distancia-universal-radio-_JM#position%3D46%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Voltímetro Digital 12v Ajk Nano Plus Tp Stetsom Jfa</t>
+          <t>Controle Jfa K600 Longa Distacia Longo Alcance</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>43.89</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>58.13</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1906,30 +1942,34 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1143371507-voltimetro-digital-12v-ajk-nano-plus-tp-stetsom-jfa-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3453920357-controle-jfa-k600-longa-distacia-longo-alcance-_JM#position%3D47%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Controle K600 Jfa Longa Alcance Branco/cinza 600 Metros</t>
+          <t>Controle De Longa Distancia Jfa K600 Longo Alcance</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K600</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>62.89</v>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1942,25 +1982,29 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3453684619-controle-k600-jfa-longa-alcance-brancocinza-600-metros-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4063855478-controle-de-longa-distancia-jfa-k600-longo-alcance-_JM#position%3D48%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Controle Longa Distância Jfa K1200 1200 Metros Varias Cores</t>
+          <t>Controle Jfa K1200 Longa Distancia 1200 Metros 5 Cores</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Sem Modelo</t>
+          <t>K1200</t>
         </is>
       </c>
       <c r="C46" t="n">
         <v>66.2</v>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Baixo</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>NA</t>
@@ -1973,7 +2017,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-1057012381-controle-longa-distncia-jfa-k1200-1200-metros-varias-cores-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-1057019584-controle-jfa-k1200-longa-distancia-1200-metros-5-cores-_JM#position%3D49%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
@@ -1989,7 +2033,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>749.65</v>
+        <v>749.64</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2008,7 +2052,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3976875558-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D87bb04f8-49e0-42e7-93b8-432f88792adc</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3976875558-fonte-120a-jfa-bob-storm-bivolt-medidor-cca-e-sci-automotiva-_JM#position%3D50%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3Dd9258394-c893-496f-afeb-58ebf5994c5b</t>
         </is>
       </c>
     </row>
